--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -451,267 +451,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>011117</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>89.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>006786</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>006787</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>162416</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501311</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>95.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005255</t>
+          <t>010041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
+          <t>嘉实港股优势混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>76.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>010894</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>鹏华汇智优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>113.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010042</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合C</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>50.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006604</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实消费精选股票A</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>37.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006605</t>
+          <t>010488</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实消费精选股票C</t>
+          <t>鹏华优选成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>54.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>501311</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>010042</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>嘉实港股优势混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010481</t>
+          <t>006604</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
+          <t>嘉实消费精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>63.40</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>006614</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010489</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合C</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>87.91</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.89</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007151</t>
+          <t>010895</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源沪港深聚瑞混合</t>
+          <t>鹏华汇智优选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501311</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+          <t>华安CES港股通精选100ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006614</t>
+          <t>007151</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+          <t>前海开源沪港深聚瑞混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010894</t>
+          <t>006605</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合A</t>
+          <t>嘉实消费精选股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010895</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合C</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>513900</t>
+          <t>159976</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安CES港股通精选100ETF</t>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>96.06</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>98.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>159976</t>
+          <t>010489</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+          <t>鹏华优选成长混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.60</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>159979</t>
+          <t>159984</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发粤港澳大湾区创新100ETF</t>
+          <t>南方粤港澳大湾区创新100ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>97.33</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>159984</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方粤港澳大湾区创新100ETF</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>98.64</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>005255</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>85.89</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>159979</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>广发粤港澳大湾区创新100ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7981</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2550,4 +2551,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3785</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9890</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3215,4 +3216,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.88</v>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.619999999999999</v>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.11</v>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3303,13 +3390,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4155,7 +4156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4166,17 +4167,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4186,14 +4207,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.03</v>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4202,14 +4245,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.88</v>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4218,14 +4283,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.619999999999999</v>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4234,14 +4321,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.11</v>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4250,13 +4359,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517550</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4972,7 +4973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4983,17 +4984,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5003,14 +5024,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.08</v>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5019,14 +5062,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.03</v>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5035,14 +5100,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.88</v>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5051,14 +5138,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.619999999999999</v>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5067,14 +5176,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.11</v>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5083,13 +5214,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>5.03</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>4.88</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.619999999999999</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>14.11</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.68</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深品牌消费50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3521,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4223,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5267,7 +5948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00669-创科实业.xlsx
+++ b/数据整理/stocks/港股/00669-创科实业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>2.23</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.04</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>5.03</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>4.88</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>8.619999999999999</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>14.11</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,390 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +994,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深品牌消费50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2608,7 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +4465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4202,7 +5129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4904,7 +5831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5946,364 +6873,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1928</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1714</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1377</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501311</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>